--- a/Promotion on WhatsApp/Keyword wise Data.xlsx
+++ b/Promotion on WhatsApp/Keyword wise Data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Veloxn Work\MamtaProjects\Promotion on WhatsApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58DAB7D8-3722-4679-B249-C39FD215BAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59967005-6ACA-4132-81F5-B8CD8A74FA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DBB24F84-D414-4642-87F4-270D8AE96644}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{DBB24F84-D414-4642-87F4-270D8AE96644}"/>
   </bookViews>
   <sheets>
     <sheet name="Whatsapp Marketing " sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Domain and web Hosting " sheetId="2" r:id="rId2"/>
+    <sheet name="Bulk E-Mails Service" sheetId="3" r:id="rId3"/>
+    <sheet name=" Bulk Voice Call Service" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -72,13 +72,33 @@
   <si>
     <t>23 June Bhavna Comments</t>
   </si>
+  <si>
+    <t>99480 94225</t>
+  </si>
+  <si>
+    <t>99454 26447</t>
+  </si>
+  <si>
+    <t>9711010929/9311081838</t>
+  </si>
+  <si>
+    <t>92284 04671</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -93,8 +113,102 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Poppins"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Poppins"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Poppins"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Poppins"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="Poppins"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Poppins"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,6 +218,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F8F9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -135,11 +273,91 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CAA395-ADF1-4C40-AEA6-01FBC305C211}">
   <dimension ref="A1:CW283"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A262" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2018,36 +2236,1164 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E791AD79-A43B-4F8E-9845-676A43E5EB86}">
-  <dimension ref="A1"/>
+  <dimension ref="C1:C53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="16.77734375" style="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="4">
+        <v>8597383582</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="4">
+        <v>9354341938</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="4">
+        <v>9376169757</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="4">
+        <v>9537101017</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="4">
+        <v>9966002041</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="4">
+        <v>8002974889</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="5">
+        <v>8758700707</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="6">
+        <v>9023620241</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="4">
+        <v>9241245491</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="4">
+        <v>9164864367</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="4">
+        <v>9070325490</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="4">
+        <v>9637091832</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="4">
+        <v>9667444600</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="4">
+        <v>9414338140</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="4">
+        <v>9278710353</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="4">
+        <v>9394022251</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="4">
+        <v>7483116604</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="4">
+        <v>9953131319</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="4">
+        <v>9111503756</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="4">
+        <v>9403733488</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="4">
+        <v>9733996528</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="4">
+        <v>7888489593</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="7">
+        <v>9855730833</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="4">
+        <v>8840666627</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="7">
+        <v>8882356812</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="7">
+        <v>9872003432</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="7">
+        <v>9153467399</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="7">
+        <v>9045200702</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="7">
+        <v>9520055275</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="7">
+        <v>9053467946</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="7">
+        <v>9923992896</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="7">
+        <v>9712120666</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="7">
+        <v>6377810443</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="7">
+        <v>7051451470</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C37" s="8">
+        <v>7668199553</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C38" s="8">
+        <v>8904854061</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C39" s="8">
+        <v>7248675666</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C40" s="8">
+        <v>8287174917</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="4">
+        <v>7988841474</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="4">
+        <v>9733043046</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="4">
+        <v>8924041978</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="7">
+        <v>9523617526</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="7">
+        <v>7858924108</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="7">
+        <v>9432591338</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C47" s="7">
+        <v>9948909294</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C48" s="9">
+        <v>9821786682</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="10">
+        <v>9368724554</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="11">
+        <v>9662540838</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="10">
+        <v>9811046721</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="10">
+        <v>9927138049</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="10">
+        <v>9927138049</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B91166-EC60-4249-9357-7FB6CA8F6EF0}">
-  <dimension ref="A1"/>
+  <dimension ref="I1:I101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="9" max="9" width="13.21875" style="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="14">
+        <v>8250089021</v>
+      </c>
+    </row>
+    <row r="3" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I3" s="14">
+        <v>8076083793</v>
+      </c>
+    </row>
+    <row r="4" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I4" s="14">
+        <v>9686805662</v>
+      </c>
+    </row>
+    <row r="5" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I5" s="14">
+        <v>8447067689</v>
+      </c>
+    </row>
+    <row r="6" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I6" s="14">
+        <v>9387644622</v>
+      </c>
+    </row>
+    <row r="7" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I7" s="14">
+        <v>8929328288</v>
+      </c>
+    </row>
+    <row r="8" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I8" s="14">
+        <v>9480707470</v>
+      </c>
+    </row>
+    <row r="9" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I9" s="14">
+        <v>8383869578</v>
+      </c>
+    </row>
+    <row r="10" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I10" s="14">
+        <v>9953603011</v>
+      </c>
+    </row>
+    <row r="11" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I11" s="14">
+        <v>9599586805</v>
+      </c>
+    </row>
+    <row r="12" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I12" s="14">
+        <v>9812224398</v>
+      </c>
+    </row>
+    <row r="13" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I13" s="14">
+        <v>8168716477</v>
+      </c>
+    </row>
+    <row r="14" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I14" s="14">
+        <v>8057690076</v>
+      </c>
+    </row>
+    <row r="15" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I15" s="14">
+        <v>8983749558</v>
+      </c>
+    </row>
+    <row r="16" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I16" s="14">
+        <v>9910514065</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I17" s="14">
+        <v>7985955373</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I18" s="14">
+        <v>10157922861</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I19" s="14">
+        <v>9449730078</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I20" s="15">
+        <v>9448133433</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I21" s="14">
+        <v>8433551200</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I22" s="14">
+        <v>9282770900</v>
+      </c>
+    </row>
+    <row r="23" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I23" s="14">
+        <v>9351172106</v>
+      </c>
+    </row>
+    <row r="24" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I24" s="14">
+        <v>9837241538</v>
+      </c>
+    </row>
+    <row r="25" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I25" s="14">
+        <v>8519897124</v>
+      </c>
+    </row>
+    <row r="26" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I26" s="14">
+        <v>9339503932</v>
+      </c>
+    </row>
+    <row r="27" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I27" s="14">
+        <v>8804006204</v>
+      </c>
+    </row>
+    <row r="28" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I28" s="14">
+        <v>8837572396</v>
+      </c>
+    </row>
+    <row r="29" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I29" s="14">
+        <v>8883725909</v>
+      </c>
+    </row>
+    <row r="30" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I30" s="14">
+        <v>10442907247</v>
+      </c>
+    </row>
+    <row r="31" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I31" s="14">
+        <v>8603567661</v>
+      </c>
+    </row>
+    <row r="32" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I32" s="14">
+        <v>9560108160</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I33" s="14">
+        <v>8890019570</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I34" s="14">
+        <v>7489662407</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I35" s="14">
+        <v>9520385204</v>
+      </c>
+    </row>
+    <row r="36" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I36" s="14">
+        <v>8768971984</v>
+      </c>
+    </row>
+    <row r="37" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I37" s="14">
+        <v>8802280004</v>
+      </c>
+    </row>
+    <row r="38" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I38" s="14">
+        <v>9878047018</v>
+      </c>
+    </row>
+    <row r="39" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I39" s="14">
+        <v>9913207540</v>
+      </c>
+    </row>
+    <row r="40" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I40" s="14">
+        <v>8745925295</v>
+      </c>
+    </row>
+    <row r="41" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I41" s="14">
+        <v>8918433892</v>
+      </c>
+    </row>
+    <row r="42" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I42" s="14">
+        <v>9977228980</v>
+      </c>
+    </row>
+    <row r="43" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I43" s="14">
+        <v>9602050105</v>
+      </c>
+    </row>
+    <row r="44" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I44" s="14">
+        <v>7029365861</v>
+      </c>
+    </row>
+    <row r="45" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I45" s="14">
+        <v>8169560590</v>
+      </c>
+    </row>
+    <row r="46" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I46" s="16">
+        <v>8136071731</v>
+      </c>
+    </row>
+    <row r="47" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I47" s="16">
+        <v>8597427076</v>
+      </c>
+    </row>
+    <row r="48" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I48" s="16">
+        <v>8811014426</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I49" s="16">
+        <v>9999107879</v>
+      </c>
+    </row>
+    <row r="50" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I50" s="14">
+        <v>8851573082</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I51" s="16">
+        <v>9545005366</v>
+      </c>
+    </row>
+    <row r="52" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I52" s="16">
+        <v>9045725943</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I53" s="16">
+        <v>9337415289</v>
+      </c>
+    </row>
+    <row r="54" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I54" s="16">
+        <v>9953001695</v>
+      </c>
+    </row>
+    <row r="55" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I55" s="16">
+        <v>9760326068</v>
+      </c>
+    </row>
+    <row r="56" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I56" s="16">
+        <v>7568678835</v>
+      </c>
+    </row>
+    <row r="57" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I57" s="16">
+        <v>8745855306</v>
+      </c>
+    </row>
+    <row r="58" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I58" s="16">
+        <v>9041827980</v>
+      </c>
+    </row>
+    <row r="59" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I59" s="16">
+        <v>7739146991</v>
+      </c>
+    </row>
+    <row r="60" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I60" s="16">
+        <v>8879007959</v>
+      </c>
+    </row>
+    <row r="61" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I61" s="16">
+        <v>9721489444</v>
+      </c>
+    </row>
+    <row r="62" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I62" s="16">
+        <v>8957865554</v>
+      </c>
+    </row>
+    <row r="63" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I63" s="16">
+        <v>8149960265</v>
+      </c>
+    </row>
+    <row r="64" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I64" s="16">
+        <v>8130281822</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I65" s="16">
+        <v>8708554506</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I66" s="16">
+        <v>9680878800</v>
+      </c>
+    </row>
+    <row r="67" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I67" s="14">
+        <v>9548792360</v>
+      </c>
+    </row>
+    <row r="68" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I68" s="14">
+        <v>9861611119</v>
+      </c>
+    </row>
+    <row r="69" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I69" s="14">
+        <v>8709201705</v>
+      </c>
+    </row>
+    <row r="70" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I70" s="14">
+        <v>9639101548</v>
+      </c>
+    </row>
+    <row r="71" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I71" s="16">
+        <v>8130876163</v>
+      </c>
+    </row>
+    <row r="72" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I72" s="16">
+        <v>8954763594</v>
+      </c>
+    </row>
+    <row r="73" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I73" s="16">
+        <v>8619546010</v>
+      </c>
+    </row>
+    <row r="74" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I74" s="16">
+        <v>8445535456</v>
+      </c>
+    </row>
+    <row r="75" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I75" s="16">
+        <v>9871072787</v>
+      </c>
+    </row>
+    <row r="76" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I76" s="16">
+        <v>9594140002</v>
+      </c>
+    </row>
+    <row r="77" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I77" s="16">
+        <v>6306235175</v>
+      </c>
+    </row>
+    <row r="78" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I78" s="16">
+        <v>8595814757</v>
+      </c>
+    </row>
+    <row r="79" spans="9:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="I79" s="17">
+        <v>9744641183</v>
+      </c>
+    </row>
+    <row r="80" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I80" s="18">
+        <v>9873346211</v>
+      </c>
+    </row>
+    <row r="81" spans="9:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I81" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="9:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="I82" s="17">
+        <v>8586950343</v>
+      </c>
+    </row>
+    <row r="83" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I83" s="14">
+        <v>9554655423</v>
+      </c>
+    </row>
+    <row r="84" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I84" s="16">
+        <v>9984084444</v>
+      </c>
+    </row>
+    <row r="85" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I85" s="14">
+        <v>8054504522</v>
+      </c>
+    </row>
+    <row r="86" spans="9:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="I86" s="17">
+        <v>9668489430</v>
+      </c>
+    </row>
+    <row r="87" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I87" s="16">
+        <v>7089095501</v>
+      </c>
+    </row>
+    <row r="88" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I88" s="16">
+        <v>9958379326</v>
+      </c>
+    </row>
+    <row r="89" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I89" s="16">
+        <v>9409354326</v>
+      </c>
+    </row>
+    <row r="90" spans="9:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="I90" s="19">
+        <v>9125902400</v>
+      </c>
+    </row>
+    <row r="91" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I91" s="18">
+        <v>8765741558</v>
+      </c>
+    </row>
+    <row r="92" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I92" s="20">
+        <v>9016874041</v>
+      </c>
+    </row>
+    <row r="93" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I93" s="20">
+        <v>9510476339</v>
+      </c>
+    </row>
+    <row r="94" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I94" s="20">
+        <v>8603414783</v>
+      </c>
+    </row>
+    <row r="95" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I95" s="21">
+        <v>9212758888</v>
+      </c>
+    </row>
+    <row r="96" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I96" s="20">
+        <v>9608930965</v>
+      </c>
+    </row>
+    <row r="97" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I97" s="20">
+        <v>7209390994</v>
+      </c>
+    </row>
+    <row r="98" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I98" s="20">
+        <v>9711113550</v>
+      </c>
+    </row>
+    <row r="99" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I99" s="20">
+        <v>9891990173</v>
+      </c>
+    </row>
+    <row r="100" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I100" s="20">
+        <v>8308959985</v>
+      </c>
+    </row>
+    <row r="101" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I101" s="20">
+        <v>7041300569</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB0EC37-60BF-4BC9-B229-4A09A141A030}">
-  <dimension ref="A1"/>
+  <dimension ref="C1:C68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="26">
+        <v>9740588579</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="26">
+        <v>8200939311</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="26">
+        <v>7340729051</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="26">
+        <v>9369531038</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="26">
+        <v>9100146441</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="26">
+        <v>8709472134</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="27">
+        <v>9852330114</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="26">
+        <v>9557557189</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="26">
+        <v>8047546725</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="26">
+        <v>8121559389</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="26">
+        <v>9045825240</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="26">
+        <v>9319339686</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="26">
+        <v>7013173272</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="26">
+        <v>8896313231</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="26">
+        <v>9145102178</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="26">
+        <v>9195714821</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="26">
+        <v>7179083391</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="26">
+        <v>8793516770</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="26">
+        <v>8856453379</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="26">
+        <v>8858551266</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="26">
+        <v>8877432248</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="26">
+        <v>10860930765</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="26">
+        <v>7982835844</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="26">
+        <v>9319736578</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="26">
+        <v>9241224485</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="26">
+        <v>7901583827</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="26">
+        <v>9934654607</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="28">
+        <v>9670971234</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="28">
+        <v>8857076001</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="26">
+        <v>9110013445</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="28">
+        <v>8448154406</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="28">
+        <v>6377831612</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="26">
+        <v>8429016973</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="28">
+        <v>8447412801</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="28">
+        <v>9818932647</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="28">
+        <v>9718221659</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="28">
+        <v>9850768787</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="28">
+        <v>9007652266</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="28">
+        <v>7871909552</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="28">
+        <v>9009042420</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="28">
+        <v>7972443941</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="26">
+        <v>8076828308</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="28">
+        <v>9096767079</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="28">
+        <v>9368710337</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C47" s="28">
+        <v>9382387250</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="28">
+        <v>8058564410</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="28">
+        <v>7015918472</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="28">
+        <v>8950583348</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="28">
+        <v>7837914473</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="28">
+        <v>7015439514</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="26">
+        <v>9155808417</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C54" s="26">
+        <v>9079269917</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C55" s="28">
+        <v>9775527371</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" ht="21" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C56" s="29">
+        <v>9990360911</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" ht="21" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C57" s="29">
+        <v>7001724265</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C58" s="23">
+        <v>9571194388</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" ht="21" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C59" s="24">
+        <v>9601062146</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C60" s="30">
+        <v>8969637360</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C61" s="31">
+        <v>9870550861</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C62" s="23">
+        <v>9118831230</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C63" s="30">
+        <v>7668589885</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C64" s="30">
+        <v>9596594106</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C65" s="30">
+        <v>9034442466</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C66" s="30">
+        <v>8982451250</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C67" s="30">
+        <v>9220122259</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C68" s="30">
+        <v>7532977786</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
